--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69827.7033102533</v>
+        <v>-56101.34517283511</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9706070.26767589</v>
+        <v>9909345.752283832</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23981702.89190162</v>
+        <v>24184978.37650956</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3555777.077231303</v>
+        <v>3451084.313349553</v>
       </c>
     </row>
     <row r="11">
@@ -8693,16 +8695,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8772,19 +8774,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8930,16 +8932,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
@@ -9009,7 +9011,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
         <v>110.5750244233121</v>
@@ -9246,19 +9248,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9407,10 +9409,10 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
@@ -9483,7 +9485,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -9814,7 +9816,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,10 +10035,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10112,10 +10114,10 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
         <v>65.92768427608706</v>
@@ -10355,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -23285,16 +23287,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23364,19 +23366,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23522,16 +23524,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23601,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>51.84373129681028</v>
@@ -23759,10 +23761,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23838,19 +23840,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23914,22 +23916,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -23999,10 +24001,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24075,7 +24077,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
@@ -24233,13 +24235,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -24306,16 +24308,16 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
@@ -24385,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24467,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
@@ -24543,7 +24545,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24555,16 +24557,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24625,10 +24627,10 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24704,10 +24706,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
@@ -24783,19 +24785,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24947,7 +24949,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
@@ -25020,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>61.18167021676314</v>
@@ -25035,10 +25037,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25257,13 +25259,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>38.66169381481656</v>
@@ -25494,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
         <v>61.18167021676314</v>
@@ -25512,7 +25514,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>123.5547069419379</v>
@@ -25670,7 +25672,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25728,7 +25730,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25907,10 +25909,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25965,10 +25967,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>61.18167021676314</v>
@@ -26044,10 +26046,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>374816.3644513907</v>
+        <v>306829.0042792289</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354230.5675679573</v>
+        <v>308350.8666520815</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320381.3835468102</v>
+        <v>351436.5585196086</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328071.7313009442</v>
+        <v>363811.2015474986</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>223923.8340466796</v>
+        <v>260802.84527139</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>293449.0398692877</v>
+        <v>255173.226841912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>311650.6543523034</v>
+        <v>281309.8451859078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>251566.186259849</v>
+        <v>253631.0080562617</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>250830.5187133307</v>
+        <v>248719.1266939807</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200004.5236807817</v>
+        <v>187034.8466433517</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222638.9231592632</v>
+        <v>208603.6948211186</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201096.3006999584</v>
+        <v>164664.9639106554</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>57160.27407493181</v>
+        <v>47447.79405033727</v>
       </c>
       <c r="F2" t="n">
-        <v>54219.44594872704</v>
+        <v>47665.20296074481</v>
       </c>
       <c r="G2" t="n">
-        <v>49383.84823142034</v>
+        <v>53820.30179896292</v>
       </c>
       <c r="H2" t="n">
-        <v>50482.46933915376</v>
+        <v>55588.10794580438</v>
       </c>
       <c r="I2" t="n">
-        <v>35604.19830283023</v>
+        <v>40872.6284777889</v>
       </c>
       <c r="J2" t="n">
-        <v>45536.37056320283</v>
+        <v>40068.39727357774</v>
       </c>
       <c r="K2" t="n">
-        <v>48136.60120363365</v>
+        <v>43802.19989414858</v>
       </c>
       <c r="L2" t="n">
-        <v>39553.10576185445</v>
+        <v>39848.08030419912</v>
       </c>
       <c r="M2" t="n">
-        <v>39448.01039806612</v>
+        <v>39146.38296673041</v>
       </c>
       <c r="N2" t="n">
-        <v>32187.1539648448</v>
+        <v>30334.34295949766</v>
       </c>
       <c r="O2" t="n">
-        <v>35420.6396046279</v>
+        <v>33415.60698489296</v>
       </c>
       <c r="P2" t="n">
-        <v>32343.12211044148</v>
+        <v>27138.64542625533</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>53753.7027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>31854.72000179988</v>
+        <v>22142.23997720535</v>
       </c>
       <c r="F4" t="n">
-        <v>28913.89187559511</v>
+        <v>22359.64888761288</v>
       </c>
       <c r="G4" t="n">
-        <v>24078.29415828841</v>
+        <v>28514.747725831</v>
       </c>
       <c r="H4" t="n">
-        <v>25176.91526602184</v>
+        <v>30282.55387267243</v>
       </c>
       <c r="I4" t="n">
-        <v>10298.64422969832</v>
+        <v>15567.07440465696</v>
       </c>
       <c r="J4" t="n">
-        <v>20230.81649007091</v>
+        <v>14762.84320044582</v>
       </c>
       <c r="K4" t="n">
-        <v>22831.04713050173</v>
+        <v>18496.64582101665</v>
       </c>
       <c r="L4" t="n">
-        <v>14247.55168872253</v>
+        <v>14542.52623106719</v>
       </c>
       <c r="M4" t="n">
-        <v>14142.4563249342</v>
+        <v>13840.82889359847</v>
       </c>
       <c r="N4" t="n">
-        <v>6881.599891712885</v>
+        <v>5028.788886365757</v>
       </c>
       <c r="O4" t="n">
-        <v>10115.08553149598</v>
+        <v>8110.052911761053</v>
       </c>
       <c r="P4" t="n">
-        <v>7037.568037309573</v>
+        <v>1833.091353123424</v>
       </c>
     </row>
     <row r="5">
@@ -26531,37 +26533,37 @@
         <v>-111406.0580318764</v>
       </c>
       <c r="F6" t="n">
-        <v>21693.94196812361</v>
+        <v>21693.9419681236</v>
       </c>
       <c r="G6" t="n">
         <v>21693.9419681236</v>
       </c>
       <c r="H6" t="n">
-        <v>21693.9419681236</v>
+        <v>21693.94196812362</v>
       </c>
       <c r="I6" t="n">
-        <v>21693.94196812359</v>
+        <v>21693.94196812361</v>
       </c>
       <c r="J6" t="n">
         <v>21693.9419681236</v>
       </c>
       <c r="K6" t="n">
-        <v>21693.9419681236</v>
+        <v>21693.94196812361</v>
       </c>
       <c r="L6" t="n">
-        <v>21693.9419681236</v>
+        <v>21693.94196812361</v>
       </c>
       <c r="M6" t="n">
-        <v>21693.9419681236</v>
+        <v>21693.94196812361</v>
       </c>
       <c r="N6" t="n">
-        <v>21693.94196812359</v>
+        <v>21693.94196812358</v>
       </c>
       <c r="O6" t="n">
-        <v>21693.9419681236</v>
+        <v>21693.94196812358</v>
       </c>
       <c r="P6" t="n">
-        <v>21693.94196812359</v>
+        <v>21693.94196812358</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56101.34517283511</v>
+        <v>-181211.2439703117</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9909345.752283832</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24184978.37650956</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3451084.313349553</v>
+        <v>4338260.11177192</v>
       </c>
     </row>
     <row r="11">
@@ -8695,16 +8695,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8774,19 +8774,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8932,16 +8932,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
@@ -9014,13 +9014,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
@@ -9093,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9488,13 +9488,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
         <v>65.92768427608706</v>
@@ -9640,25 +9640,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -9728,13 +9728,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -9816,7 +9816,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
         <v>38.66169381481656</v>
@@ -9971,10 +9971,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,10 +10035,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10114,19 +10114,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10193,7 +10193,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
@@ -10202,7 +10202,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
         <v>57.81213424001893</v>
@@ -10354,22 +10354,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,16 +10433,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
@@ -10588,22 +10588,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10667,22 +10667,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,25 +11141,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23287,16 +23287,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23366,19 +23366,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23524,16 +23524,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23606,13 +23606,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23916,22 +23916,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -24080,13 +24080,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -24232,25 +24232,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24308,7 +24308,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24320,13 +24320,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24469,19 +24469,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24545,16 +24545,16 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -24563,10 +24563,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24627,10 +24627,10 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24706,19 +24706,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24794,7 +24794,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24946,22 +24946,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25025,16 +25025,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25180,22 +25180,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,22 +25259,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25496,28 +25496,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,25 +25733,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,31 +25888,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25967,28 +25967,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26046,25 +26046,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>306829.0042792289</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>308350.8666520815</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351436.5585196086</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363811.2015474986</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>260802.84527139</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>255173.226841912</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>281309.8451859078</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>253631.0080562617</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>248719.1266939807</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187034.8466433517</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>208603.6948211186</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>164664.9639106554</v>
+        <v>374816.3644513907</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>47447.79405033727</v>
+        <v>57160.27407493181</v>
       </c>
       <c r="F2" t="n">
-        <v>47665.20296074481</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="G2" t="n">
-        <v>53820.30179896292</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="H2" t="n">
-        <v>55588.10794580438</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="I2" t="n">
-        <v>40872.6284777889</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="J2" t="n">
-        <v>40068.39727357774</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="K2" t="n">
-        <v>43802.19989414858</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="L2" t="n">
-        <v>39848.08030419912</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="M2" t="n">
-        <v>39146.38296673041</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="N2" t="n">
-        <v>30334.34295949766</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="O2" t="n">
-        <v>33415.60698489296</v>
+        <v>57160.27407493182</v>
       </c>
       <c r="P2" t="n">
-        <v>27138.64542625533</v>
+        <v>57160.27407493182</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>53753.7027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>22142.23997720535</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="F4" t="n">
-        <v>22359.64888761288</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="G4" t="n">
-        <v>28514.747725831</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="H4" t="n">
-        <v>30282.55387267243</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="I4" t="n">
-        <v>15567.07440465696</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="J4" t="n">
-        <v>14762.84320044582</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="K4" t="n">
-        <v>18496.64582101665</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="L4" t="n">
-        <v>14542.52623106719</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="M4" t="n">
-        <v>13840.82889359847</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="N4" t="n">
-        <v>5028.788886365757</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="O4" t="n">
-        <v>8110.052911761053</v>
+        <v>31854.72000179988</v>
       </c>
       <c r="P4" t="n">
-        <v>1833.091353123424</v>
+        <v>31854.72000179988</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318764</v>
+        <v>-126216.0748709903</v>
       </c>
       <c r="F6" t="n">
-        <v>21693.9419681236</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="G6" t="n">
-        <v>21693.9419681236</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="H6" t="n">
-        <v>21693.94196812362</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="I6" t="n">
-        <v>21693.94196812361</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="J6" t="n">
-        <v>21693.9419681236</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="K6" t="n">
-        <v>21693.94196812361</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="L6" t="n">
-        <v>21693.94196812361</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="M6" t="n">
-        <v>21693.94196812361</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="N6" t="n">
-        <v>21693.94196812358</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="O6" t="n">
-        <v>21693.94196812358</v>
+        <v>6883.925129009713</v>
       </c>
       <c r="P6" t="n">
-        <v>21693.94196812358</v>
+        <v>6883.925129009713</v>
       </c>
     </row>
   </sheetData>
